--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Cxcl12-Itga5.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Cxcl12-Itga5.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>198.977211</v>
+        <v>146.620486</v>
       </c>
       <c r="H2">
-        <v>596.9316329999999</v>
+        <v>439.861458</v>
       </c>
       <c r="I2">
-        <v>0.440791350614085</v>
+        <v>0.3983053592962091</v>
       </c>
       <c r="J2">
-        <v>0.4407913506140851</v>
+        <v>0.3983053592962091</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>30.99161333333333</v>
+        <v>35.04689966666667</v>
       </c>
       <c r="N2">
-        <v>92.97484</v>
+        <v>105.140699</v>
       </c>
       <c r="O2">
-        <v>0.3599121977633812</v>
+        <v>0.3824629895491901</v>
       </c>
       <c r="P2">
-        <v>0.3599121977633811</v>
+        <v>0.3824629895491901</v>
       </c>
       <c r="Q2">
-        <v>6166.624785457079</v>
+        <v>5138.593461919905</v>
       </c>
       <c r="R2">
-        <v>55499.62306911371</v>
+        <v>46247.34115727914</v>
       </c>
       <c r="S2">
-        <v>0.1586461837546045</v>
+        <v>0.1523370584698924</v>
       </c>
       <c r="T2">
-        <v>0.1586461837546045</v>
+        <v>0.1523370584698924</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>198.977211</v>
+        <v>146.620486</v>
       </c>
       <c r="H3">
-        <v>596.9316329999999</v>
+        <v>439.861458</v>
       </c>
       <c r="I3">
-        <v>0.440791350614085</v>
+        <v>0.3983053592962091</v>
       </c>
       <c r="J3">
-        <v>0.4407913506140851</v>
+        <v>0.3983053592962091</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>89.739807</v>
       </c>
       <c r="O3">
-        <v>0.3473891556493311</v>
+        <v>0.3264402385872224</v>
       </c>
       <c r="P3">
-        <v>0.3473891556493311</v>
+        <v>0.3264402385872223</v>
       </c>
       <c r="Q3">
-        <v>5952.058837512758</v>
+        <v>4385.898038628734</v>
       </c>
       <c r="R3">
-        <v>53568.52953761482</v>
+        <v>39473.0823476586</v>
       </c>
       <c r="S3">
-        <v>0.1531261351073553</v>
+        <v>0.1300228965192238</v>
       </c>
       <c r="T3">
-        <v>0.1531261351073553</v>
+        <v>0.1300228965192238</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>198.977211</v>
+        <v>146.620486</v>
       </c>
       <c r="H4">
-        <v>596.9316329999999</v>
+        <v>439.861458</v>
       </c>
       <c r="I4">
-        <v>0.440791350614085</v>
+        <v>0.3983053592962091</v>
       </c>
       <c r="J4">
-        <v>0.4407913506140851</v>
+        <v>0.3983053592962091</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>6.053715999999999</v>
+        <v>8.911727666666666</v>
       </c>
       <c r="N4">
-        <v>18.161148</v>
+        <v>26.735183</v>
       </c>
       <c r="O4">
-        <v>0.07030309157387132</v>
+        <v>0.09725271102035077</v>
       </c>
       <c r="P4">
-        <v>0.07030309157387131</v>
+        <v>0.09725271102035075</v>
       </c>
       <c r="Q4">
-        <v>1204.551525866076</v>
+        <v>1306.641841586312</v>
       </c>
       <c r="R4">
-        <v>10840.96373279468</v>
+        <v>11759.77657427681</v>
       </c>
       <c r="S4">
-        <v>0.03098899468719244</v>
+        <v>0.0387362760054912</v>
       </c>
       <c r="T4">
-        <v>0.03098899468719244</v>
+        <v>0.0387362760054912</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>198.977211</v>
+        <v>146.620486</v>
       </c>
       <c r="H5">
-        <v>596.9316329999999</v>
+        <v>439.861458</v>
       </c>
       <c r="I5">
-        <v>0.440791350614085</v>
+        <v>0.3983053592962091</v>
       </c>
       <c r="J5">
-        <v>0.4407913506140851</v>
+        <v>0.3983053592962091</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>19.150218</v>
+        <v>17.76285166666667</v>
       </c>
       <c r="N5">
-        <v>57.45065400000001</v>
+        <v>53.288555</v>
       </c>
       <c r="O5">
-        <v>0.2223955550134164</v>
+        <v>0.1938440608432367</v>
       </c>
       <c r="P5">
-        <v>0.2223955550134164</v>
+        <v>0.1938440608432367</v>
       </c>
       <c r="Q5">
-        <v>3810.456967681998</v>
+        <v>2604.397944112577</v>
       </c>
       <c r="R5">
-        <v>34294.11270913798</v>
+        <v>23439.58149701319</v>
       </c>
       <c r="S5">
-        <v>0.09803003706493288</v>
+        <v>0.07720912830160162</v>
       </c>
       <c r="T5">
-        <v>0.09803003706493287</v>
+        <v>0.07720912830160162</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>590.324021</v>
       </c>
       <c r="I6">
-        <v>0.4359121013721307</v>
+        <v>0.534552907532962</v>
       </c>
       <c r="J6">
-        <v>0.4359121013721308</v>
+        <v>0.5345529075329621</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>30.99161333333333</v>
+        <v>35.04689966666667</v>
       </c>
       <c r="N6">
-        <v>92.97484</v>
+        <v>105.140699</v>
       </c>
       <c r="O6">
-        <v>0.3599121977633812</v>
+        <v>0.3824629895491901</v>
       </c>
       <c r="P6">
-        <v>0.3599121977633811</v>
+        <v>0.3824629895491901</v>
       </c>
       <c r="Q6">
-        <v>6098.364600070183</v>
+        <v>6896.342244936743</v>
       </c>
       <c r="R6">
-        <v>54885.28140063164</v>
+        <v>62067.08020443069</v>
       </c>
       <c r="S6">
-        <v>0.1568900824364974</v>
+        <v>0.2044467030872684</v>
       </c>
       <c r="T6">
-        <v>0.1568900824364974</v>
+        <v>0.2044467030872684</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>590.324021</v>
       </c>
       <c r="I7">
-        <v>0.4359121013721307</v>
+        <v>0.534552907532962</v>
       </c>
       <c r="J7">
-        <v>0.4359121013721308</v>
+        <v>0.5345529075329621</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>89.739807</v>
       </c>
       <c r="O7">
-        <v>0.3473891556493311</v>
+        <v>0.3264402385872224</v>
       </c>
       <c r="P7">
-        <v>0.3473891556493311</v>
+        <v>0.3264402385872223</v>
       </c>
       <c r="Q7">
         <v>5886.173745778216</v>
@@ -883,10 +883,10 @@
         <v>52975.56371200395</v>
       </c>
       <c r="S7">
-        <v>0.1514311368329901</v>
+        <v>0.1744995786725536</v>
       </c>
       <c r="T7">
-        <v>0.1514311368329901</v>
+        <v>0.1744995786725536</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>590.324021</v>
       </c>
       <c r="I8">
-        <v>0.4359121013721307</v>
+        <v>0.534552907532962</v>
       </c>
       <c r="J8">
-        <v>0.4359121013721308</v>
+        <v>0.5345529075329621</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>6.053715999999999</v>
+        <v>8.911727666666666</v>
       </c>
       <c r="N8">
-        <v>18.161148</v>
+        <v>26.735183</v>
       </c>
       <c r="O8">
-        <v>0.07030309157387132</v>
+        <v>0.09725271102035077</v>
       </c>
       <c r="P8">
-        <v>0.07030309157387131</v>
+        <v>0.09725271102035075</v>
       </c>
       <c r="Q8">
-        <v>1191.217990370679</v>
+        <v>1753.602303414538</v>
       </c>
       <c r="R8">
-        <v>10720.96191333611</v>
+        <v>15782.42073073084</v>
       </c>
       <c r="S8">
-        <v>0.03064596838092358</v>
+        <v>0.05198671944139144</v>
       </c>
       <c r="T8">
-        <v>0.03064596838092358</v>
+        <v>0.05198671944139144</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>590.324021</v>
       </c>
       <c r="I9">
-        <v>0.4359121013721307</v>
+        <v>0.534552907532962</v>
       </c>
       <c r="J9">
-        <v>0.4359121013721308</v>
+        <v>0.5345529075329621</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>19.150218</v>
+        <v>17.76285166666667</v>
       </c>
       <c r="N9">
-        <v>57.45065400000001</v>
+        <v>53.288555</v>
       </c>
       <c r="O9">
-        <v>0.2223955550134164</v>
+        <v>0.1938440608432367</v>
       </c>
       <c r="P9">
-        <v>0.2223955550134164</v>
+        <v>0.1938440608432367</v>
       </c>
       <c r="Q9">
-        <v>3768.277897595527</v>
+        <v>3495.279340097739</v>
       </c>
       <c r="R9">
-        <v>33914.50107835974</v>
+        <v>31457.51406087966</v>
       </c>
       <c r="S9">
-        <v>0.09694491372171965</v>
+        <v>0.1036199063317486</v>
       </c>
       <c r="T9">
-        <v>0.09694491372171965</v>
+        <v>0.1036199063317486</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>55.49875533333334</v>
+        <v>24.174389</v>
       </c>
       <c r="H10">
-        <v>166.496266</v>
+        <v>72.523167</v>
       </c>
       <c r="I10">
-        <v>0.122945593607605</v>
+        <v>0.0656715098899026</v>
       </c>
       <c r="J10">
-        <v>0.122945593607605</v>
+        <v>0.0656715098899026</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>30.99161333333333</v>
+        <v>35.04689966666667</v>
       </c>
       <c r="N10">
-        <v>92.97484</v>
+        <v>105.140699</v>
       </c>
       <c r="O10">
-        <v>0.3599121977633812</v>
+        <v>0.3824629895491901</v>
       </c>
       <c r="P10">
-        <v>0.3599121977633811</v>
+        <v>0.3824629895491901</v>
       </c>
       <c r="Q10">
-        <v>1719.995965771938</v>
+        <v>847.2373857859704</v>
       </c>
       <c r="R10">
-        <v>15479.96369194744</v>
+        <v>7625.136472073734</v>
       </c>
       <c r="S10">
-        <v>0.04424961880063662</v>
+        <v>0.02511692200070135</v>
       </c>
       <c r="T10">
-        <v>0.0442496188006366</v>
+        <v>0.02511692200070135</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>55.49875533333334</v>
+        <v>24.174389</v>
       </c>
       <c r="H11">
-        <v>166.496266</v>
+        <v>72.523167</v>
       </c>
       <c r="I11">
-        <v>0.122945593607605</v>
+        <v>0.0656715098899026</v>
       </c>
       <c r="J11">
-        <v>0.122945593607605</v>
+        <v>0.0656715098899026</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>89.739807</v>
       </c>
       <c r="O11">
-        <v>0.3473891556493311</v>
+        <v>0.3264402385872224</v>
       </c>
       <c r="P11">
-        <v>0.3473891556493311</v>
+        <v>0.3264402385872223</v>
       </c>
       <c r="Q11">
-        <v>1660.149197451185</v>
+        <v>723.135001067641</v>
       </c>
       <c r="R11">
-        <v>14941.34277706066</v>
+        <v>6508.215009608769</v>
       </c>
       <c r="S11">
-        <v>0.04270996595415169</v>
+        <v>0.02143782335684294</v>
       </c>
       <c r="T11">
-        <v>0.04270996595415168</v>
+        <v>0.02143782335684294</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>55.49875533333334</v>
+        <v>24.174389</v>
       </c>
       <c r="H12">
-        <v>166.496266</v>
+        <v>72.523167</v>
       </c>
       <c r="I12">
-        <v>0.122945593607605</v>
+        <v>0.0656715098899026</v>
       </c>
       <c r="J12">
-        <v>0.122945593607605</v>
+        <v>0.0656715098899026</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>6.053715999999999</v>
+        <v>8.911727666666666</v>
       </c>
       <c r="N12">
-        <v>18.161148</v>
+        <v>26.735183</v>
       </c>
       <c r="O12">
-        <v>0.07030309157387132</v>
+        <v>0.09725271102035077</v>
       </c>
       <c r="P12">
-        <v>0.07030309157387131</v>
+        <v>0.09725271102035075</v>
       </c>
       <c r="Q12">
-        <v>335.9737031414853</v>
+        <v>215.4355712760623</v>
       </c>
       <c r="R12">
-        <v>3023.763328273368</v>
+        <v>1938.920141484561</v>
       </c>
       <c r="S12">
-        <v>0.00864345532599942</v>
+        <v>0.006386732373592805</v>
       </c>
       <c r="T12">
-        <v>0.008643455325999418</v>
+        <v>0.006386732373592804</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>55.49875533333334</v>
+        <v>24.174389</v>
       </c>
       <c r="H13">
-        <v>166.496266</v>
+        <v>72.523167</v>
       </c>
       <c r="I13">
-        <v>0.122945593607605</v>
+        <v>0.0656715098899026</v>
       </c>
       <c r="J13">
-        <v>0.122945593607605</v>
+        <v>0.0656715098899026</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>19.150218</v>
+        <v>17.76285166666667</v>
       </c>
       <c r="N13">
-        <v>57.45065400000001</v>
+        <v>53.288555</v>
       </c>
       <c r="O13">
-        <v>0.2223955550134164</v>
+        <v>0.1938440608432367</v>
       </c>
       <c r="P13">
-        <v>0.2223955550134164</v>
+        <v>0.1938440608432367</v>
       </c>
       <c r="Q13">
-        <v>1062.813263361996</v>
+        <v>429.4060859392984</v>
       </c>
       <c r="R13">
-        <v>9565.319370257967</v>
+        <v>3864.654773453685</v>
       </c>
       <c r="S13">
-        <v>0.02734255352681725</v>
+        <v>0.0127300321587655</v>
       </c>
       <c r="T13">
-        <v>0.02734255352681724</v>
+        <v>0.0127300321587655</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,22 +1275,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.158424</v>
+        <v>0.541205</v>
       </c>
       <c r="H14">
-        <v>0.475272</v>
+        <v>1.623615</v>
       </c>
       <c r="I14">
-        <v>0.0003509544061791369</v>
+        <v>0.001470223280926138</v>
       </c>
       <c r="J14">
-        <v>0.0003509544061791369</v>
+        <v>0.001470223280926138</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>30.99161333333333</v>
+        <v>35.04689966666667</v>
       </c>
       <c r="N14">
-        <v>92.97484</v>
+        <v>105.140699</v>
       </c>
       <c r="O14">
-        <v>0.3599121977633812</v>
+        <v>0.3824629895491901</v>
       </c>
       <c r="P14">
-        <v>0.3599121977633811</v>
+        <v>0.3824629895491901</v>
       </c>
       <c r="Q14">
-        <v>4.909815350720001</v>
+        <v>18.96755733409834</v>
       </c>
       <c r="R14">
-        <v>44.18833815648</v>
+        <v>170.708016006885</v>
       </c>
       <c r="S14">
-        <v>0.0001263127716426755</v>
+        <v>0.0005623059913278295</v>
       </c>
       <c r="T14">
-        <v>0.0001263127716426755</v>
+        <v>0.0005623059913278294</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,22 +1337,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.158424</v>
+        <v>0.541205</v>
       </c>
       <c r="H15">
-        <v>0.475272</v>
+        <v>1.623615</v>
       </c>
       <c r="I15">
-        <v>0.0003509544061791369</v>
+        <v>0.001470223280926138</v>
       </c>
       <c r="J15">
-        <v>0.0003509544061791369</v>
+        <v>0.001470223280926138</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>89.739807</v>
       </c>
       <c r="O15">
-        <v>0.3473891556493311</v>
+        <v>0.3264402385872224</v>
       </c>
       <c r="P15">
-        <v>0.3473891556493311</v>
+        <v>0.3264402385872223</v>
       </c>
       <c r="Q15">
-        <v>4.738979728056</v>
+        <v>16.189210749145</v>
       </c>
       <c r="R15">
-        <v>42.650817552504</v>
+        <v>145.702896742305</v>
       </c>
       <c r="S15">
-        <v>0.0001219177548339828</v>
+        <v>0.0004799400386020174</v>
       </c>
       <c r="T15">
-        <v>0.0001219177548339827</v>
+        <v>0.0004799400386020172</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,22 +1399,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.158424</v>
+        <v>0.541205</v>
       </c>
       <c r="H16">
-        <v>0.475272</v>
+        <v>1.623615</v>
       </c>
       <c r="I16">
-        <v>0.0003509544061791369</v>
+        <v>0.001470223280926138</v>
       </c>
       <c r="J16">
-        <v>0.0003509544061791369</v>
+        <v>0.001470223280926138</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>6.053715999999999</v>
+        <v>8.911727666666666</v>
       </c>
       <c r="N16">
-        <v>18.161148</v>
+        <v>26.735183</v>
       </c>
       <c r="O16">
-        <v>0.07030309157387132</v>
+        <v>0.09725271102035077</v>
       </c>
       <c r="P16">
-        <v>0.07030309157387131</v>
+        <v>0.09725271102035075</v>
       </c>
       <c r="Q16">
-        <v>0.9590539035839999</v>
+        <v>4.823071571838334</v>
       </c>
       <c r="R16">
-        <v>8.631485132256</v>
+        <v>43.407644146545</v>
       </c>
       <c r="S16">
-        <v>2.467317975586549E-05</v>
+        <v>0.0001429831998753017</v>
       </c>
       <c r="T16">
-        <v>2.467317975586549E-05</v>
+        <v>0.0001429831998753016</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,22 +1461,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.158424</v>
+        <v>0.541205</v>
       </c>
       <c r="H17">
-        <v>0.475272</v>
+        <v>1.623615</v>
       </c>
       <c r="I17">
-        <v>0.0003509544061791369</v>
+        <v>0.001470223280926138</v>
       </c>
       <c r="J17">
-        <v>0.0003509544061791369</v>
+        <v>0.001470223280926138</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>19.150218</v>
+        <v>17.76285166666667</v>
       </c>
       <c r="N17">
-        <v>57.45065400000001</v>
+        <v>53.288555</v>
       </c>
       <c r="O17">
-        <v>0.2223955550134164</v>
+        <v>0.1938440608432367</v>
       </c>
       <c r="P17">
-        <v>0.2223955550134164</v>
+        <v>0.1938440608432367</v>
       </c>
       <c r="Q17">
-        <v>3.033854136432001</v>
+        <v>9.613344136258334</v>
       </c>
       <c r="R17">
-        <v>27.30468722788801</v>
+        <v>86.52009722632501</v>
       </c>
       <c r="S17">
-        <v>7.805069994661313E-05</v>
+        <v>0.0002849940511209894</v>
       </c>
       <c r="T17">
-        <v>7.805069994661311E-05</v>
+        <v>0.0002849940511209894</v>
       </c>
     </row>
   </sheetData>
